--- a/Project Documentation/Release 1 Burndown Charts.xlsx
+++ b/Project Documentation/Release 1 Burndown Charts.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottmarshall/Desktop/release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Release1-IFB299-Team14-Repo-master\IFB299-Team14-Repo-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
     <sheet name="Release " sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -54,11 +54,17 @@
   <si>
     <t>Sprint 2</t>
   </si>
+  <si>
+    <t>Actual Story Points</t>
+  </si>
+  <si>
+    <t>*Botnet from Guangzhou attacked our server</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -75,12 +81,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -103,6 +115,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,14 +128,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -156,6 +174,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimate</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cmpd="sng">
               <a:solidFill>
@@ -167,126 +188,126 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 1'!$A$1:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
+            <c:numRef>
+              <c:f>'Sprint 1'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration Timeline (days)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$B$1:$B$17</c:f>
+              <c:f>'Sprint 1'!$B$3:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF0B-4BB2-A74B-DC4301E724DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Progress</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cmpd="sng">
               <a:solidFill>
@@ -298,122 +319,119 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 1'!$A$1:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
+            <c:numRef>
+              <c:f>'Sprint 1'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration Timeline (days)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$C$1:$C$17</c:f>
+              <c:f>'Sprint 1'!$C$3:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF0B-4BB2-A74B-DC4301E724DE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -478,8 +496,8 @@
         <c:axId val="-553265120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14.0"/>
-          <c:min val="0.0"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -503,7 +521,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sum of Task Estimates (days)</a:t>
+                  <a:t>Sum of Task Estimates (hours)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -553,9 +571,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -591,6 +609,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimation</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cmpd="sng">
               <a:solidFill>
@@ -602,126 +623,126 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 2'!$A$1:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
+            <c:numRef>
+              <c:f>'Sprint 2'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration Timeline (days)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$B$1:$B$17</c:f>
+              <c:f>'Sprint 2'!$B$3:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D132-400E-807C-D3DB026B0CFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Progression</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cmpd="sng">
               <a:solidFill>
@@ -733,122 +754,119 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sprint 2'!$A$1:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
+            <c:numRef>
+              <c:f>'Sprint 2'!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Iteration Timeline (days)</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$C$1:$C$17</c:f>
+              <c:f>'Sprint 2'!$C$3:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D132-400E-807C-D3DB026B0CFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -913,8 +931,8 @@
         <c:axId val="-552221280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14.0"/>
-          <c:min val="0.0"/>
+          <c:max val="40"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -938,7 +956,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Sum of Task Estimates (days)</a:t>
+                  <a:t>Sum of Task Estimates (hours)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -988,9 +1006,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -1026,6 +1044,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimation</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cmpd="sng">
               <a:solidFill>
@@ -1037,62 +1058,117 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'Release '!$A$1:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
+            <c:numRef>
+              <c:f>'Release '!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Release</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sprints</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Release '!$B$1:$B$7</c:f>
+              <c:f>'Release '!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>227</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198.0</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>168.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7FC-459C-BC00-FA428075A968}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Progression</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Release '!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Release '!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A7FC-459C-BC00-FA428075A968}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1157,8 +1233,8 @@
         <c:axId val="-553199152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="250.0"/>
-          <c:min val="0.0"/>
+          <c:max val="250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1210,7 +1286,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-553206176"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -1271,15 +1347,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1305,16 +1381,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1601,17 +1677,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1622,161 +1700,161 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -1787,52 +1865,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
   </sheetData>
@@ -1843,19 +1921,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1866,161 +1946,162 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="C10" s="3">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="C12" s="3">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2030,6 +2111,13 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,35 +2127,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="4">
         <v>227</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2075,8 +2171,11 @@
         <f>(B3-29)</f>
         <v>198</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2084,8 +2183,11 @@
         <f t="shared" ref="B5:B6" si="0">(B4-30)</f>
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2094,7 +2196,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
